--- a/dane_guss.xlsx
+++ b/dane_guss.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DG Inwest\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA85653-66CF-4A63-BE9C-A2F2CAC187B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9667FDA5-0E16-4C74-8B86-738C3D6486EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{8976A7EB-81F6-420C-94DC-2CE7156ED76A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{8976A7EB-81F6-420C-94DC-2CE7156ED76A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="2006" sheetId="1" r:id="rId1"/>
+    <sheet name="2007" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Jedendzien</t>
   </si>
@@ -50,6 +51,9 @@
   </si>
   <si>
     <t>Pobyt</t>
+  </si>
+  <si>
+    <t>Smierc</t>
   </si>
 </sst>
 </file>
@@ -74,7 +78,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,13 +87,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -130,18 +152,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -458,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7665ED-A642-463E-B2B0-2D8B0EDC1168}">
   <dimension ref="A1:CT17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,37 +496,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>475949</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>419</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>87725</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>632371</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>78181</v>
+      </c>
+      <c r="F2" s="7">
+        <v>185</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -539,20 +569,23 @@
       <c r="AP2" s="3"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>832601</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>475</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>184445</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>702018</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>102473</v>
+      </c>
+      <c r="F3" s="7">
+        <v>68</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -639,20 +672,23 @@
       </c>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>660898</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>641</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>195620</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>743075</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <v>219227</v>
+      </c>
+      <c r="F4" s="7">
+        <v>117</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -689,20 +725,23 @@
       <c r="AP4" s="3"/>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>764387</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>689</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>106468</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>667322</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <v>109162</v>
+      </c>
+      <c r="F5" s="7">
+        <v>124</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -739,20 +778,23 @@
       <c r="AP5" s="3"/>
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>984907</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>730</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>81749</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>751129</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <v>91539</v>
+      </c>
+      <c r="F6" s="7">
+        <v>317</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -789,20 +831,23 @@
       <c r="AP6" s="3"/>
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>990814</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>719</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>97268</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>693733</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>105659</v>
+      </c>
+      <c r="F7" s="7">
+        <v>14496</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -839,20 +884,23 @@
       <c r="AP7" s="3"/>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>983719</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>639</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>61888</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>733666</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <v>74725</v>
+      </c>
+      <c r="F8" s="7">
+        <v>320</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
@@ -889,20 +937,23 @@
       <c r="AP8" s="3"/>
     </row>
     <row r="9" spans="1:98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>1240966</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>736</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>75713</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>707472</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <v>82971</v>
+      </c>
+      <c r="F9" s="7">
+        <v>78</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -939,20 +990,23 @@
       <c r="AP9" s="3"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>1282730</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>825</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>69303</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <v>729991</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>81693</v>
+      </c>
+      <c r="F10" s="7">
+        <v>28</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -989,20 +1043,23 @@
       <c r="AP10" s="3"/>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>1316679</v>
       </c>
       <c r="B11" s="10">
         <v>820</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>73756</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>760221</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <v>84110</v>
+      </c>
+      <c r="F11" s="7">
+        <v>77</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1039,20 +1096,23 @@
       <c r="AP11" s="3"/>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>1361304</v>
       </c>
       <c r="B12" s="10">
         <v>879</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>83753</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <v>699964</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <v>94129</v>
+      </c>
+      <c r="F12" s="7">
+        <v>220</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1089,20 +1149,23 @@
       <c r="AP12" s="3"/>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>1272303</v>
       </c>
       <c r="B13" s="10">
         <v>846</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>79719</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>1237390</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>88606</v>
+      </c>
+      <c r="F13" s="7">
+        <v>75</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1139,20 +1202,23 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>1291657</v>
       </c>
       <c r="B14" s="10">
         <v>857</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>65964</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>740700</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <v>78086</v>
+      </c>
+      <c r="F14" s="7">
+        <v>25</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1189,20 +1255,23 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>1315466</v>
       </c>
       <c r="B15" s="10">
         <v>962</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>1554456</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <v>682811</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="9">
         <v>84585</v>
+      </c>
+      <c r="F15" s="7">
+        <v>56</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1239,41 +1308,410 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>1286994</v>
       </c>
       <c r="B16" s="10">
         <v>899</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>1364327</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>663045</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <v>87193</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="F16" s="7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>2258551</v>
       </c>
       <c r="B17" s="10">
         <v>998</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>1556912</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <v>733258</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="9">
         <v>70976</v>
+      </c>
+      <c r="F17" s="7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7AF51C-AE80-4D15-81B8-8610FAC2CDD4}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>29691</v>
+      </c>
+      <c r="B2" s="12">
+        <v>57</v>
+      </c>
+      <c r="C2" s="12">
+        <v>53429</v>
+      </c>
+      <c r="D2" s="12">
+        <v>74144</v>
+      </c>
+      <c r="E2" s="12">
+        <v>23307</v>
+      </c>
+      <c r="F2" s="7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>45592</v>
+      </c>
+      <c r="B3" s="12">
+        <v>29</v>
+      </c>
+      <c r="C3" s="12">
+        <v>516</v>
+      </c>
+      <c r="D3" s="12">
+        <v>24454</v>
+      </c>
+      <c r="E3" s="12">
+        <v>958</v>
+      </c>
+      <c r="F3" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>50772</v>
+      </c>
+      <c r="B4" s="12">
+        <v>54</v>
+      </c>
+      <c r="C4" s="12">
+        <v>21504</v>
+      </c>
+      <c r="D4" s="12">
+        <v>47090</v>
+      </c>
+      <c r="E4" s="12">
+        <v>10002</v>
+      </c>
+      <c r="F4" s="7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>49243</v>
+      </c>
+      <c r="B5" s="12">
+        <v>21</v>
+      </c>
+      <c r="C5" s="12">
+        <v>5789</v>
+      </c>
+      <c r="D5" s="12">
+        <v>12013</v>
+      </c>
+      <c r="E5" s="12">
+        <v>7825</v>
+      </c>
+      <c r="F5" s="7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>2033</v>
+      </c>
+      <c r="B6" s="12">
+        <v>80</v>
+      </c>
+      <c r="C6" s="12">
+        <v>20598</v>
+      </c>
+      <c r="D6" s="12">
+        <v>44119</v>
+      </c>
+      <c r="E6" s="12">
+        <v>21225</v>
+      </c>
+      <c r="F6" s="7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>107808</v>
+      </c>
+      <c r="B7" s="12">
+        <v>67</v>
+      </c>
+      <c r="C7" s="12">
+        <v>4731</v>
+      </c>
+      <c r="D7" s="12">
+        <v>101623</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5896</v>
+      </c>
+      <c r="F7" s="7">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>189508</v>
+      </c>
+      <c r="B8" s="12">
+        <v>48</v>
+      </c>
+      <c r="C8" s="12">
+        <v>49413</v>
+      </c>
+      <c r="D8" s="12">
+        <v>102627</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6749</v>
+      </c>
+      <c r="F8" s="7">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>23881</v>
+      </c>
+      <c r="B9" s="12">
+        <v>34</v>
+      </c>
+      <c r="C9" s="12">
+        <v>5672</v>
+      </c>
+      <c r="D9" s="12">
+        <v>17533</v>
+      </c>
+      <c r="E9" s="12">
+        <v>987</v>
+      </c>
+      <c r="F9" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>4757</v>
+      </c>
+      <c r="B10" s="12">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12">
+        <v>4306</v>
+      </c>
+      <c r="D10" s="12">
+        <v>42652</v>
+      </c>
+      <c r="E10" s="12">
+        <v>6968</v>
+      </c>
+      <c r="F10" s="7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>9789</v>
+      </c>
+      <c r="B11" s="12">
+        <v>36</v>
+      </c>
+      <c r="C11" s="12">
+        <v>3291</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1298</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4375</v>
+      </c>
+      <c r="F11" s="7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>135978</v>
+      </c>
+      <c r="B12" s="12">
+        <v>78</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2109</v>
+      </c>
+      <c r="D12" s="12">
+        <v>54177</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2331</v>
+      </c>
+      <c r="F12" s="7">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>3410</v>
+      </c>
+      <c r="B13" s="12">
+        <v>20</v>
+      </c>
+      <c r="C13" s="12">
+        <v>538</v>
+      </c>
+      <c r="D13" s="12">
+        <v>61761</v>
+      </c>
+      <c r="E13" s="12">
+        <v>779</v>
+      </c>
+      <c r="F13" s="7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>23</v>
+      </c>
+      <c r="B14" s="12">
+        <v>2</v>
+      </c>
+      <c r="C14" s="12">
+        <v>23</v>
+      </c>
+      <c r="D14" s="12">
+        <v>10087</v>
+      </c>
+      <c r="E14" s="12">
+        <v>23</v>
+      </c>
+      <c r="F14" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>28335</v>
+      </c>
+      <c r="B15" s="12">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4353</v>
+      </c>
+      <c r="D15" s="12">
+        <v>23342</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2183</v>
+      </c>
+      <c r="F15" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>139511</v>
+      </c>
+      <c r="B16" s="12">
+        <v>47</v>
+      </c>
+      <c r="C16" s="12">
+        <v>20173</v>
+      </c>
+      <c r="D16" s="12">
+        <v>51320</v>
+      </c>
+      <c r="E16" s="12">
+        <v>18850</v>
+      </c>
+      <c r="F16" s="7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>12270</v>
+      </c>
+      <c r="B17" s="12">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1570</v>
+      </c>
+      <c r="D17" s="12">
+        <v>40046</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1158</v>
+      </c>
+      <c r="F17" s="7">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>